--- a/example_data/EPA/label_corrected/000264-01167-20160520_2019-05-15_130856.xlsx
+++ b/example_data/EPA/label_corrected/000264-01167-20160520_2019-05-15_130856.xlsx
@@ -779,7 +779,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions || Off Target Movement</t>
+          <t>off target movement || application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
